--- a/Documents/documents from Alec/CAM Equipment MasterList_Final.xlsx
+++ b/Documents/documents from Alec/CAM Equipment MasterList_Final.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>3D PRINTING</t>
   </si>
@@ -89,9 +89,6 @@
     <t>uPrint SE Plus</t>
   </si>
   <si>
-    <t>http://www.3dsystems.com/products/datafiles/viper/datasheets/International/viper_si2_uk.qxd.pdf</t>
-  </si>
-  <si>
     <t>http://www.layerbylayer.de/files/images/gebrauchtmaschinen/030-2016-sla/DSCN0355%20(Mobile).JPG</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Babyplast</t>
   </si>
   <si>
-    <t>User Manual</t>
-  </si>
-  <si>
     <t>http://www.babyplast.com/files/contenuto_web/610P10_eng.pdf</t>
   </si>
   <si>
@@ -276,6 +270,30 @@
   </si>
   <si>
     <t>https://envisiontec.com/3d-printers/industrial-3d-printers/ultra-3sp/</t>
+  </si>
+  <si>
+    <t>http://amtekcompany.com/doc/MakerBot-Replicator-2x.pdf</t>
+  </si>
+  <si>
+    <t>https://envisiontec.com/wp-content/uploads/2016/09/MK-MCS-ULTRA3SPSeries-V01-FN-EN.pdf</t>
+  </si>
+  <si>
+    <t>http://www.agile-manufacturing.com/files/products/viper-sla.pdf</t>
+  </si>
+  <si>
+    <t>https://www.haascnc.com/DOCLIB/datasheets/DS_DT1_US.pdf</t>
+  </si>
+  <si>
+    <t>http://www.haascnc.com/DOCLIB/datasheets/DS_TLseries_US.pdf</t>
+  </si>
+  <si>
+    <t>https://cdn.ulsinc.com/assets/pdf/platforms/592b989476b6741c1576225d/pls_plastform_spec_sheet_2017-03.pdf?v=10</t>
+  </si>
+  <si>
+    <t>USER GUIDE</t>
+  </si>
+  <si>
+    <t>http://users.wpi.edu/~gfischer/files/VLS460_Laser_Cutter_Manual.pdf</t>
   </si>
 </sst>
 </file>
@@ -322,18 +340,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -349,57 +361,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,258 +702,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.5" customWidth="1"/>
-    <col min="6" max="6" width="61.1640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="46.83203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="4"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+      <c r="I3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="17" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="F6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
@@ -977,394 +896,341 @@
       <c r="E13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15">
+      <c r="E32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16">
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="7" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="F41" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1376,12 +1242,17 @@
     <mergeCell ref="B38:C38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1"/>
-    <hyperlink ref="G15" r:id="rId2"/>
-    <hyperlink ref="F14" r:id="rId3"/>
-    <hyperlink ref="G14" r:id="rId4"/>
+    <hyperlink ref="G15" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="G14" r:id="rId3"/>
+    <hyperlink ref="G17" r:id="rId4"/>
+    <hyperlink ref="G16" r:id="rId5"/>
+    <hyperlink ref="F25" r:id="rId6"/>
+    <hyperlink ref="F26" r:id="rId7"/>
+    <hyperlink ref="F27" r:id="rId8"/>
+    <hyperlink ref="I27" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>